--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079A0C5-20B3-4334-8178-4AC02573CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CF573-B495-4095-B54A-E0FAFF6EB228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2024-09-27</t>
   </si>
 </sst>
 </file>
@@ -1464,19 +1464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FC188"/>
+  <dimension ref="A1:FC189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="FC187" sqref="FC187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159">
+    <row r="1" spans="1:159" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -85977,10 +85977,10 @@
         <v>1030</v>
       </c>
       <c r="BL178" s="3">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="BM178" s="3">
-        <v>29746</v>
+        <v>29753</v>
       </c>
       <c r="BN178" s="3">
         <v>8</v>
@@ -86073,10 +86073,10 @@
         <v>1879</v>
       </c>
       <c r="CR178" s="3">
-        <v>2355</v>
+        <v>2362</v>
       </c>
       <c r="CS178" s="3">
-        <v>50541</v>
+        <v>50548</v>
       </c>
       <c r="CT178" s="3">
         <v>104</v>
@@ -86169,7 +86169,7 @@
         <v>1997</v>
       </c>
       <c r="DX178" s="3">
-        <v>2371</v>
+        <v>2378</v>
       </c>
       <c r="DY178" s="3">
         <v>23</v>
@@ -91053,6 +91053,485 @@
       </c>
       <c r="FC188" s="3">
         <v>3775</v>
+      </c>
+    </row>
+    <row r="189" spans="1:159">
+      <c r="A189" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1287</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1350</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1315</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1299</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1412</v>
+      </c>
+      <c r="G189" s="3">
+        <v>1591</v>
+      </c>
+      <c r="H189" s="3">
+        <v>1374</v>
+      </c>
+      <c r="I189" s="3">
+        <v>1487</v>
+      </c>
+      <c r="J189" s="3">
+        <v>1521</v>
+      </c>
+      <c r="K189" s="3">
+        <v>1612</v>
+      </c>
+      <c r="L189" s="3">
+        <v>1553</v>
+      </c>
+      <c r="M189" s="3">
+        <v>1367</v>
+      </c>
+      <c r="N189" s="3">
+        <v>1738</v>
+      </c>
+      <c r="O189" s="3">
+        <v>1537</v>
+      </c>
+      <c r="P189" s="3">
+        <v>1581</v>
+      </c>
+      <c r="Q189" s="3">
+        <v>1313</v>
+      </c>
+      <c r="R189" s="3">
+        <v>1287</v>
+      </c>
+      <c r="S189" s="3">
+        <v>1347</v>
+      </c>
+      <c r="T189" s="3">
+        <v>1397</v>
+      </c>
+      <c r="U189" s="3">
+        <v>1447</v>
+      </c>
+      <c r="V189" s="3">
+        <v>1216</v>
+      </c>
+      <c r="W189" s="3">
+        <v>1449</v>
+      </c>
+      <c r="X189" s="3">
+        <v>1660</v>
+      </c>
+      <c r="Y189" s="3">
+        <v>1442</v>
+      </c>
+      <c r="Z189" s="3">
+        <v>1820</v>
+      </c>
+      <c r="AA189" s="3">
+        <v>1433</v>
+      </c>
+      <c r="AB189" s="3">
+        <v>1139</v>
+      </c>
+      <c r="AC189" s="3">
+        <v>1160</v>
+      </c>
+      <c r="AD189" s="3">
+        <v>941</v>
+      </c>
+      <c r="AE189" s="3">
+        <v>1206</v>
+      </c>
+      <c r="AF189" s="3">
+        <v>1474</v>
+      </c>
+      <c r="AG189" s="3">
+        <v>862</v>
+      </c>
+      <c r="AH189" s="3">
+        <v>847</v>
+      </c>
+      <c r="AI189" s="3">
+        <v>1063</v>
+      </c>
+      <c r="AJ189" s="3">
+        <v>796</v>
+      </c>
+      <c r="AK189" s="3">
+        <v>941</v>
+      </c>
+      <c r="AL189" s="3">
+        <v>1034</v>
+      </c>
+      <c r="AM189" s="3">
+        <v>1030</v>
+      </c>
+      <c r="AN189" s="3">
+        <v>1027</v>
+      </c>
+      <c r="AO189" s="3">
+        <v>1084</v>
+      </c>
+      <c r="AP189" s="3">
+        <v>856</v>
+      </c>
+      <c r="AQ189" s="3">
+        <v>919</v>
+      </c>
+      <c r="AR189" s="3">
+        <v>774</v>
+      </c>
+      <c r="AS189" s="3">
+        <v>789</v>
+      </c>
+      <c r="AT189" s="3">
+        <v>666</v>
+      </c>
+      <c r="AU189" s="3">
+        <v>644</v>
+      </c>
+      <c r="AV189" s="3">
+        <v>936</v>
+      </c>
+      <c r="AW189" s="3">
+        <v>684</v>
+      </c>
+      <c r="AX189" s="3">
+        <v>856</v>
+      </c>
+      <c r="AY189" s="3">
+        <v>672</v>
+      </c>
+      <c r="AZ189" s="3">
+        <v>823</v>
+      </c>
+      <c r="BA189" s="3">
+        <v>687</v>
+      </c>
+      <c r="BB189" s="3">
+        <v>903</v>
+      </c>
+      <c r="BC189" s="3">
+        <v>629</v>
+      </c>
+      <c r="BD189" s="3">
+        <v>904</v>
+      </c>
+      <c r="BE189" s="3">
+        <v>743</v>
+      </c>
+      <c r="BF189" s="3">
+        <v>812</v>
+      </c>
+      <c r="BG189" s="3">
+        <v>736</v>
+      </c>
+      <c r="BH189" s="3">
+        <v>847</v>
+      </c>
+      <c r="BI189" s="3">
+        <v>899</v>
+      </c>
+      <c r="BJ189" s="3">
+        <v>867</v>
+      </c>
+      <c r="BK189" s="3">
+        <v>1065</v>
+      </c>
+      <c r="BL189" s="3">
+        <v>821</v>
+      </c>
+      <c r="BM189" s="3">
+        <v>43919</v>
+      </c>
+      <c r="BN189" s="3">
+        <v>9</v>
+      </c>
+      <c r="BO189" s="3">
+        <v>328</v>
+      </c>
+      <c r="BP189" s="3">
+        <v>3413</v>
+      </c>
+      <c r="BQ189" s="3">
+        <v>2190</v>
+      </c>
+      <c r="BR189" s="3">
+        <v>2592</v>
+      </c>
+      <c r="BS189" s="3">
+        <v>595</v>
+      </c>
+      <c r="BT189" s="3">
+        <v>394</v>
+      </c>
+      <c r="BU189" s="3">
+        <v>422</v>
+      </c>
+      <c r="BV189" s="3">
+        <v>45</v>
+      </c>
+      <c r="BW189" s="3">
+        <v>1563</v>
+      </c>
+      <c r="BX189" s="3">
+        <v>865</v>
+      </c>
+      <c r="BY189" s="3">
+        <v>1827</v>
+      </c>
+      <c r="BZ189" s="3">
+        <v>157</v>
+      </c>
+      <c r="CA189" s="3">
+        <v>1231</v>
+      </c>
+      <c r="CB189" s="3">
+        <v>1928</v>
+      </c>
+      <c r="CC189" s="3">
+        <v>630</v>
+      </c>
+      <c r="CD189" s="3">
+        <v>2018</v>
+      </c>
+      <c r="CE189" s="3">
+        <v>524</v>
+      </c>
+      <c r="CF189" s="3">
+        <v>1510</v>
+      </c>
+      <c r="CG189" s="3">
+        <v>1010</v>
+      </c>
+      <c r="CH189" s="3">
+        <v>434</v>
+      </c>
+      <c r="CI189" s="3">
+        <v>94</v>
+      </c>
+      <c r="CJ189" s="3">
+        <v>714</v>
+      </c>
+      <c r="CK189" s="3">
+        <v>1825</v>
+      </c>
+      <c r="CL189" s="3">
+        <v>2875</v>
+      </c>
+      <c r="CM189" s="3">
+        <v>300</v>
+      </c>
+      <c r="CN189" s="3">
+        <v>2222</v>
+      </c>
+      <c r="CO189" s="3">
+        <v>2768</v>
+      </c>
+      <c r="CP189" s="3">
+        <v>2822</v>
+      </c>
+      <c r="CQ189" s="3">
+        <v>2312</v>
+      </c>
+      <c r="CR189" s="3">
+        <v>4304</v>
+      </c>
+      <c r="CS189" s="3">
+        <v>75235</v>
+      </c>
+      <c r="CT189" s="3">
+        <v>118</v>
+      </c>
+      <c r="CU189" s="3">
+        <v>639</v>
+      </c>
+      <c r="CV189" s="3">
+        <v>6099</v>
+      </c>
+      <c r="CW189" s="3">
+        <v>2994</v>
+      </c>
+      <c r="CX189" s="3">
+        <v>2859</v>
+      </c>
+      <c r="CY189" s="3">
+        <v>1145</v>
+      </c>
+      <c r="CZ189" s="3">
+        <v>539</v>
+      </c>
+      <c r="DA189" s="3">
+        <v>625</v>
+      </c>
+      <c r="DB189" s="3">
+        <v>355</v>
+      </c>
+      <c r="DC189" s="3">
+        <v>5354</v>
+      </c>
+      <c r="DD189" s="3">
+        <v>4110</v>
+      </c>
+      <c r="DE189" s="3">
+        <v>3934</v>
+      </c>
+      <c r="DF189" s="3">
+        <v>1106</v>
+      </c>
+      <c r="DG189" s="3">
+        <v>2340</v>
+      </c>
+      <c r="DH189" s="3">
+        <v>6623</v>
+      </c>
+      <c r="DI189" s="3">
+        <v>4203</v>
+      </c>
+      <c r="DJ189" s="3">
+        <v>3117</v>
+      </c>
+      <c r="DK189" s="3">
+        <v>1649</v>
+      </c>
+      <c r="DL189" s="3">
+        <v>3542</v>
+      </c>
+      <c r="DM189" s="3">
+        <v>1641</v>
+      </c>
+      <c r="DN189" s="3">
+        <v>673</v>
+      </c>
+      <c r="DO189" s="3">
+        <v>236</v>
+      </c>
+      <c r="DP189" s="3">
+        <v>793</v>
+      </c>
+      <c r="DQ189" s="3">
+        <v>1825</v>
+      </c>
+      <c r="DR189" s="3">
+        <v>3095</v>
+      </c>
+      <c r="DS189" s="3">
+        <v>304</v>
+      </c>
+      <c r="DT189" s="3">
+        <v>2767</v>
+      </c>
+      <c r="DU189" s="3">
+        <v>2918</v>
+      </c>
+      <c r="DV189" s="3">
+        <v>2844</v>
+      </c>
+      <c r="DW189" s="3">
+        <v>2465</v>
+      </c>
+      <c r="DX189" s="3">
+        <v>4322</v>
+      </c>
+      <c r="DY189" s="3">
+        <v>23</v>
+      </c>
+      <c r="DZ189" s="3">
+        <v>177</v>
+      </c>
+      <c r="EA189" s="3">
+        <v>3173</v>
+      </c>
+      <c r="EB189" s="3">
+        <v>2560</v>
+      </c>
+      <c r="EC189" s="3">
+        <v>7708</v>
+      </c>
+      <c r="ED189" s="3">
+        <v>1560</v>
+      </c>
+      <c r="EE189" s="3">
+        <v>1408</v>
+      </c>
+      <c r="EF189" s="3">
+        <v>1295</v>
+      </c>
+      <c r="EG189" s="3">
+        <v>107</v>
+      </c>
+      <c r="EH189" s="3">
+        <v>2296</v>
+      </c>
+      <c r="EI189" s="3">
+        <v>635</v>
+      </c>
+      <c r="EJ189" s="3">
+        <v>787</v>
+      </c>
+      <c r="EK189" s="3">
+        <v>793</v>
+      </c>
+      <c r="EL189" s="3">
+        <v>588</v>
+      </c>
+      <c r="EM189" s="3">
+        <v>2616</v>
+      </c>
+      <c r="EN189" s="3">
+        <v>2263</v>
+      </c>
+      <c r="EO189" s="3">
+        <v>909</v>
+      </c>
+      <c r="EP189" s="3">
+        <v>1006</v>
+      </c>
+      <c r="EQ189" s="3">
+        <v>1664</v>
+      </c>
+      <c r="ER189" s="3">
+        <v>1526</v>
+      </c>
+      <c r="ES189" s="3">
+        <v>26</v>
+      </c>
+      <c r="ET189" s="3">
+        <v>221</v>
+      </c>
+      <c r="EU189" s="3">
+        <v>853</v>
+      </c>
+      <c r="EV189" s="3">
+        <v>701</v>
+      </c>
+      <c r="EW189" s="3">
+        <v>1599</v>
+      </c>
+      <c r="EX189" s="3">
+        <v>18</v>
+      </c>
+      <c r="EY189" s="3">
+        <v>1299</v>
+      </c>
+      <c r="EZ189" s="3">
+        <v>3004</v>
+      </c>
+      <c r="FA189" s="3">
+        <v>1205</v>
+      </c>
+      <c r="FB189" s="3">
+        <v>1500</v>
+      </c>
+      <c r="FC189" s="3">
+        <v>3822</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CF573-B495-4095-B54A-E0FAFF6EB228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E610C-3260-4095-BEDC-8C552BCDF7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E610C-3260-4095-BEDC-8C552BCDF7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D1A1CF-1028-4570-ADBA-C8229AAA08DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D1A1CF-1028-4570-ADBA-C8229AAA08DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EC2DF-32DE-4038-B9DE-2F4D31607B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EC2DF-32DE-4038-B9DE-2F4D31607B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C25C5-C22B-4D71-8CB9-6A84FF5A9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C25C5-C22B-4D71-8CB9-6A84FF5A9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA722CC-30FE-4608-9698-A7C93F34DDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA722CC-30FE-4608-9698-A7C93F34DDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD695D5D-47AB-422B-8675-133B9DB94008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD695D5D-47AB-422B-8675-133B9DB94008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802FCC33-D83A-4E3B-BA18-CCB7C6CC9093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802FCC33-D83A-4E3B-BA18-CCB7C6CC9093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D95BC-E648-4768-A3B5-DC6001064077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D95BC-E648-4768-A3B5-DC6001064077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED0006-9EA7-4135-8B1C-AA685CA73E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED0006-9EA7-4135-8B1C-AA685CA73E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97193245-552E-4957-88C1-E847353AE02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97193245-552E-4957-88C1-E847353AE02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C16F706-AB0D-43EB-B867-797CEB5348E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C16F706-AB0D-43EB-B867-797CEB5348E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC44248-2F0D-48F8-B344-054BDEA14B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED0006-9EA7-4135-8B1C-AA685CA73E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A541A-61E2-43AE-BA52-FEC7C75788BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,9 +1477,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:159">

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A541A-61E2-43AE-BA52-FEC7C75788BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C823508D-F4EA-493A-BE77-F52168F6CA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="3345" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1466,17 +1466,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FC189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="FC187" sqref="FC187"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" ht="15">
+    <row r="1" spans="1:159">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C823508D-F4EA-493A-BE77-F52168F6CA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8192E0-50A6-4A36-8A84-75B854FFF89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="3345" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-09-27</t>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -1464,19 +1464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FC189"/>
+  <dimension ref="A1:FC190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
       <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159">
+    <row r="1" spans="1:159" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -86456,10 +86456,10 @@
         <v>1143</v>
       </c>
       <c r="BL179" s="3">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="BM179" s="3">
-        <v>30461</v>
+        <v>30468</v>
       </c>
       <c r="BN179" s="3">
         <v>8</v>
@@ -86552,10 +86552,10 @@
         <v>1881</v>
       </c>
       <c r="CR179" s="3">
-        <v>2444</v>
+        <v>2451</v>
       </c>
       <c r="CS179" s="3">
-        <v>52108</v>
+        <v>52115</v>
       </c>
       <c r="CT179" s="3">
         <v>105</v>
@@ -86648,7 +86648,7 @@
         <v>2009</v>
       </c>
       <c r="DX179" s="3">
-        <v>2461</v>
+        <v>2468</v>
       </c>
       <c r="DY179" s="3">
         <v>23</v>
@@ -91532,6 +91532,485 @@
       </c>
       <c r="FC189" s="3">
         <v>3822</v>
+      </c>
+    </row>
+    <row r="190" spans="1:159">
+      <c r="A190" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1418</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1447</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1447</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1464</v>
+      </c>
+      <c r="F190" s="3">
+        <v>1563</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1747</v>
+      </c>
+      <c r="H190" s="3">
+        <v>1546</v>
+      </c>
+      <c r="I190" s="3">
+        <v>1692</v>
+      </c>
+      <c r="J190" s="3">
+        <v>1722</v>
+      </c>
+      <c r="K190" s="3">
+        <v>1833</v>
+      </c>
+      <c r="L190" s="3">
+        <v>1750</v>
+      </c>
+      <c r="M190" s="3">
+        <v>1572</v>
+      </c>
+      <c r="N190" s="3">
+        <v>1973</v>
+      </c>
+      <c r="O190" s="3">
+        <v>1679</v>
+      </c>
+      <c r="P190" s="3">
+        <v>1733</v>
+      </c>
+      <c r="Q190" s="3">
+        <v>1519</v>
+      </c>
+      <c r="R190" s="3">
+        <v>1481</v>
+      </c>
+      <c r="S190" s="3">
+        <v>1505</v>
+      </c>
+      <c r="T190" s="3">
+        <v>1481</v>
+      </c>
+      <c r="U190" s="3">
+        <v>1588</v>
+      </c>
+      <c r="V190" s="3">
+        <v>1252</v>
+      </c>
+      <c r="W190" s="3">
+        <v>1677</v>
+      </c>
+      <c r="X190" s="3">
+        <v>1754</v>
+      </c>
+      <c r="Y190" s="3">
+        <v>1569</v>
+      </c>
+      <c r="Z190" s="3">
+        <v>1929</v>
+      </c>
+      <c r="AA190" s="3">
+        <v>1529</v>
+      </c>
+      <c r="AB190" s="3">
+        <v>1341</v>
+      </c>
+      <c r="AC190" s="3">
+        <v>1306</v>
+      </c>
+      <c r="AD190" s="3">
+        <v>1059</v>
+      </c>
+      <c r="AE190" s="3">
+        <v>1395</v>
+      </c>
+      <c r="AF190" s="3">
+        <v>1632</v>
+      </c>
+      <c r="AG190" s="3">
+        <v>959</v>
+      </c>
+      <c r="AH190" s="3">
+        <v>943</v>
+      </c>
+      <c r="AI190" s="3">
+        <v>1181</v>
+      </c>
+      <c r="AJ190" s="3">
+        <v>878</v>
+      </c>
+      <c r="AK190" s="3">
+        <v>1030</v>
+      </c>
+      <c r="AL190" s="3">
+        <v>1132</v>
+      </c>
+      <c r="AM190" s="3">
+        <v>1140</v>
+      </c>
+      <c r="AN190" s="3">
+        <v>1154</v>
+      </c>
+      <c r="AO190" s="3">
+        <v>1223</v>
+      </c>
+      <c r="AP190" s="3">
+        <v>954</v>
+      </c>
+      <c r="AQ190" s="3">
+        <v>1031</v>
+      </c>
+      <c r="AR190" s="3">
+        <v>871</v>
+      </c>
+      <c r="AS190" s="3">
+        <v>905</v>
+      </c>
+      <c r="AT190" s="3">
+        <v>760</v>
+      </c>
+      <c r="AU190" s="3">
+        <v>750</v>
+      </c>
+      <c r="AV190" s="3">
+        <v>1046</v>
+      </c>
+      <c r="AW190" s="3">
+        <v>767</v>
+      </c>
+      <c r="AX190" s="3">
+        <v>986</v>
+      </c>
+      <c r="AY190" s="3">
+        <v>787</v>
+      </c>
+      <c r="AZ190" s="3">
+        <v>961</v>
+      </c>
+      <c r="BA190" s="3">
+        <v>797</v>
+      </c>
+      <c r="BB190" s="3">
+        <v>1033</v>
+      </c>
+      <c r="BC190" s="3">
+        <v>741</v>
+      </c>
+      <c r="BD190" s="3">
+        <v>1017</v>
+      </c>
+      <c r="BE190" s="3">
+        <v>823</v>
+      </c>
+      <c r="BF190" s="3">
+        <v>918</v>
+      </c>
+      <c r="BG190" s="3">
+        <v>804</v>
+      </c>
+      <c r="BH190" s="3">
+        <v>933</v>
+      </c>
+      <c r="BI190" s="3">
+        <v>971</v>
+      </c>
+      <c r="BJ190" s="3">
+        <v>954</v>
+      </c>
+      <c r="BK190" s="3">
+        <v>1143</v>
+      </c>
+      <c r="BL190" s="3">
+        <v>906</v>
+      </c>
+      <c r="BM190" s="3">
+        <v>45031</v>
+      </c>
+      <c r="BN190" s="3">
+        <v>8</v>
+      </c>
+      <c r="BO190" s="3">
+        <v>333</v>
+      </c>
+      <c r="BP190" s="3">
+        <v>3459</v>
+      </c>
+      <c r="BQ190" s="3">
+        <v>2274</v>
+      </c>
+      <c r="BR190" s="3">
+        <v>2639</v>
+      </c>
+      <c r="BS190" s="3">
+        <v>596</v>
+      </c>
+      <c r="BT190" s="3">
+        <v>394</v>
+      </c>
+      <c r="BU190" s="3">
+        <v>422</v>
+      </c>
+      <c r="BV190" s="3">
+        <v>45</v>
+      </c>
+      <c r="BW190" s="3">
+        <v>1581</v>
+      </c>
+      <c r="BX190" s="3">
+        <v>874</v>
+      </c>
+      <c r="BY190" s="3">
+        <v>1852</v>
+      </c>
+      <c r="BZ190" s="3">
+        <v>160</v>
+      </c>
+      <c r="CA190" s="3">
+        <v>1358</v>
+      </c>
+      <c r="CB190" s="3">
+        <v>1970</v>
+      </c>
+      <c r="CC190" s="3">
+        <v>630</v>
+      </c>
+      <c r="CD190" s="3">
+        <v>2038</v>
+      </c>
+      <c r="CE190" s="3">
+        <v>536</v>
+      </c>
+      <c r="CF190" s="3">
+        <v>1522</v>
+      </c>
+      <c r="CG190" s="3">
+        <v>1051</v>
+      </c>
+      <c r="CH190" s="3">
+        <v>438</v>
+      </c>
+      <c r="CI190" s="3">
+        <v>99</v>
+      </c>
+      <c r="CJ190" s="3">
+        <v>726</v>
+      </c>
+      <c r="CK190" s="3">
+        <v>1893</v>
+      </c>
+      <c r="CL190" s="3">
+        <v>2916</v>
+      </c>
+      <c r="CM190" s="3">
+        <v>336</v>
+      </c>
+      <c r="CN190" s="3">
+        <v>2316</v>
+      </c>
+      <c r="CO190" s="3">
+        <v>2788</v>
+      </c>
+      <c r="CP190" s="3">
+        <v>3035</v>
+      </c>
+      <c r="CQ190" s="3">
+        <v>2312</v>
+      </c>
+      <c r="CR190" s="3">
+        <v>4427</v>
+      </c>
+      <c r="CS190" s="3">
+        <v>77292</v>
+      </c>
+      <c r="CT190" s="3">
+        <v>119</v>
+      </c>
+      <c r="CU190" s="3">
+        <v>655</v>
+      </c>
+      <c r="CV190" s="3">
+        <v>6188</v>
+      </c>
+      <c r="CW190" s="3">
+        <v>3098</v>
+      </c>
+      <c r="CX190" s="3">
+        <v>2917</v>
+      </c>
+      <c r="CY190" s="3">
+        <v>1162</v>
+      </c>
+      <c r="CZ190" s="3">
+        <v>543</v>
+      </c>
+      <c r="DA190" s="3">
+        <v>632</v>
+      </c>
+      <c r="DB190" s="3">
+        <v>366</v>
+      </c>
+      <c r="DC190" s="3">
+        <v>5483</v>
+      </c>
+      <c r="DD190" s="3">
+        <v>4229</v>
+      </c>
+      <c r="DE190" s="3">
+        <v>4027</v>
+      </c>
+      <c r="DF190" s="3">
+        <v>1129</v>
+      </c>
+      <c r="DG190" s="3">
+        <v>2483</v>
+      </c>
+      <c r="DH190" s="3">
+        <v>6740</v>
+      </c>
+      <c r="DI190" s="3">
+        <v>4255</v>
+      </c>
+      <c r="DJ190" s="3">
+        <v>3206</v>
+      </c>
+      <c r="DK190" s="3">
+        <v>1715</v>
+      </c>
+      <c r="DL190" s="3">
+        <v>3667</v>
+      </c>
+      <c r="DM190" s="3">
+        <v>1734</v>
+      </c>
+      <c r="DN190" s="3">
+        <v>681</v>
+      </c>
+      <c r="DO190" s="3">
+        <v>254</v>
+      </c>
+      <c r="DP190" s="3">
+        <v>820</v>
+      </c>
+      <c r="DQ190" s="3">
+        <v>1893</v>
+      </c>
+      <c r="DR190" s="3">
+        <v>3147</v>
+      </c>
+      <c r="DS190" s="3">
+        <v>339</v>
+      </c>
+      <c r="DT190" s="3">
+        <v>2890</v>
+      </c>
+      <c r="DU190" s="3">
+        <v>2951</v>
+      </c>
+      <c r="DV190" s="3">
+        <v>3058</v>
+      </c>
+      <c r="DW190" s="3">
+        <v>2468</v>
+      </c>
+      <c r="DX190" s="3">
+        <v>4445</v>
+      </c>
+      <c r="DY190" s="3">
+        <v>23</v>
+      </c>
+      <c r="DZ190" s="3">
+        <v>192</v>
+      </c>
+      <c r="EA190" s="3">
+        <v>3217</v>
+      </c>
+      <c r="EB190" s="3">
+        <v>2564</v>
+      </c>
+      <c r="EC190" s="3">
+        <v>7802</v>
+      </c>
+      <c r="ED190" s="3">
+        <v>1604</v>
+      </c>
+      <c r="EE190" s="3">
+        <v>1432</v>
+      </c>
+      <c r="EF190" s="3">
+        <v>1330</v>
+      </c>
+      <c r="EG190" s="3">
+        <v>107</v>
+      </c>
+      <c r="EH190" s="3">
+        <v>2301</v>
+      </c>
+      <c r="EI190" s="3">
+        <v>635</v>
+      </c>
+      <c r="EJ190" s="3">
+        <v>807</v>
+      </c>
+      <c r="EK190" s="3">
+        <v>793</v>
+      </c>
+      <c r="EL190" s="3">
+        <v>608</v>
+      </c>
+      <c r="EM190" s="3">
+        <v>2633</v>
+      </c>
+      <c r="EN190" s="3">
+        <v>2263</v>
+      </c>
+      <c r="EO190" s="3">
+        <v>919</v>
+      </c>
+      <c r="EP190" s="3">
+        <v>1006</v>
+      </c>
+      <c r="EQ190" s="3">
+        <v>1669</v>
+      </c>
+      <c r="ER190" s="3">
+        <v>1583</v>
+      </c>
+      <c r="ES190" s="3">
+        <v>26</v>
+      </c>
+      <c r="ET190" s="3">
+        <v>224</v>
+      </c>
+      <c r="EU190" s="3">
+        <v>879</v>
+      </c>
+      <c r="EV190" s="3">
+        <v>713</v>
+      </c>
+      <c r="EW190" s="3">
+        <v>1610</v>
+      </c>
+      <c r="EX190" s="3">
+        <v>18</v>
+      </c>
+      <c r="EY190" s="3">
+        <v>1331</v>
+      </c>
+      <c r="EZ190" s="3">
+        <v>3016</v>
+      </c>
+      <c r="FA190" s="3">
+        <v>1205</v>
+      </c>
+      <c r="FB190" s="3">
+        <v>1500</v>
+      </c>
+      <c r="FC190" s="3">
+        <v>3884</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8192E0-50A6-4A36-8A84-75B854FFF89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0128671-1540-4836-B6A0-AC9B78B251C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1466,17 +1466,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FC190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="FC8" sqref="B8:FC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" ht="15">
+    <row r="1" spans="1:159">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0128671-1540-4836-B6A0-AC9B78B251C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62A8AF-8337-4695-8536-05766A4617A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -1464,19 +1464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FC190"/>
+  <dimension ref="A1:FC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="FC8" sqref="B8:FC8"/>
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159">
+    <row r="1" spans="1:159" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -86842,7 +86842,7 @@
         <v>1863</v>
       </c>
       <c r="AG180" s="3">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="AH180" s="3">
         <v>1105</v>
@@ -86935,10 +86935,10 @@
         <v>1257</v>
       </c>
       <c r="BL180" s="3">
-        <v>1094</v>
+        <v>1103</v>
       </c>
       <c r="BM180" s="3">
-        <v>31291</v>
+        <v>31298</v>
       </c>
       <c r="BN180" s="3">
         <v>8</v>
@@ -87031,10 +87031,10 @@
         <v>1896</v>
       </c>
       <c r="CR180" s="3">
-        <v>2629</v>
+        <v>2636</v>
       </c>
       <c r="CS180" s="3">
-        <v>53576</v>
+        <v>53582</v>
       </c>
       <c r="CT180" s="3">
         <v>105</v>
@@ -87127,7 +87127,7 @@
         <v>2014</v>
       </c>
       <c r="DX180" s="3">
-        <v>2646</v>
+        <v>2653</v>
       </c>
       <c r="DY180" s="3">
         <v>23</v>
@@ -92011,6 +92011,485 @@
       </c>
       <c r="FC190" s="3">
         <v>3884</v>
+      </c>
+    </row>
+    <row r="191" spans="1:159">
+      <c r="A191" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1569</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1624</v>
+      </c>
+      <c r="E191" s="3">
+        <v>1626</v>
+      </c>
+      <c r="F191" s="3">
+        <v>1776</v>
+      </c>
+      <c r="G191" s="3">
+        <v>1958</v>
+      </c>
+      <c r="H191" s="3">
+        <v>1758</v>
+      </c>
+      <c r="I191" s="3">
+        <v>1927</v>
+      </c>
+      <c r="J191" s="3">
+        <v>1980</v>
+      </c>
+      <c r="K191" s="3">
+        <v>2046</v>
+      </c>
+      <c r="L191" s="3">
+        <v>2055</v>
+      </c>
+      <c r="M191" s="3">
+        <v>1747</v>
+      </c>
+      <c r="N191" s="3">
+        <v>2366</v>
+      </c>
+      <c r="O191" s="3">
+        <v>1935</v>
+      </c>
+      <c r="P191" s="3">
+        <v>1864</v>
+      </c>
+      <c r="Q191" s="3">
+        <v>1673</v>
+      </c>
+      <c r="R191" s="3">
+        <v>1651</v>
+      </c>
+      <c r="S191" s="3">
+        <v>1735</v>
+      </c>
+      <c r="T191" s="3">
+        <v>1728</v>
+      </c>
+      <c r="U191" s="3">
+        <v>1809</v>
+      </c>
+      <c r="V191" s="3">
+        <v>1396</v>
+      </c>
+      <c r="W191" s="3">
+        <v>1846</v>
+      </c>
+      <c r="X191" s="3">
+        <v>1898</v>
+      </c>
+      <c r="Y191" s="3">
+        <v>1714</v>
+      </c>
+      <c r="Z191" s="3">
+        <v>2066</v>
+      </c>
+      <c r="AA191" s="3">
+        <v>1627</v>
+      </c>
+      <c r="AB191" s="3">
+        <v>1503</v>
+      </c>
+      <c r="AC191" s="3">
+        <v>1414</v>
+      </c>
+      <c r="AD191" s="3">
+        <v>1158</v>
+      </c>
+      <c r="AE191" s="3">
+        <v>1546</v>
+      </c>
+      <c r="AF191" s="3">
+        <v>1779</v>
+      </c>
+      <c r="AG191" s="3">
+        <v>1052</v>
+      </c>
+      <c r="AH191" s="3">
+        <v>1022</v>
+      </c>
+      <c r="AI191" s="3">
+        <v>1292</v>
+      </c>
+      <c r="AJ191" s="3">
+        <v>969</v>
+      </c>
+      <c r="AK191" s="3">
+        <v>1117</v>
+      </c>
+      <c r="AL191" s="3">
+        <v>1263</v>
+      </c>
+      <c r="AM191" s="3">
+        <v>1256</v>
+      </c>
+      <c r="AN191" s="3">
+        <v>1279</v>
+      </c>
+      <c r="AO191" s="3">
+        <v>1351</v>
+      </c>
+      <c r="AP191" s="3">
+        <v>1026</v>
+      </c>
+      <c r="AQ191" s="3">
+        <v>1124</v>
+      </c>
+      <c r="AR191" s="3">
+        <v>942</v>
+      </c>
+      <c r="AS191" s="3">
+        <v>1011</v>
+      </c>
+      <c r="AT191" s="3">
+        <v>837</v>
+      </c>
+      <c r="AU191" s="3">
+        <v>829</v>
+      </c>
+      <c r="AV191" s="3">
+        <v>1133</v>
+      </c>
+      <c r="AW191" s="3">
+        <v>838</v>
+      </c>
+      <c r="AX191" s="3">
+        <v>1079</v>
+      </c>
+      <c r="AY191" s="3">
+        <v>873</v>
+      </c>
+      <c r="AZ191" s="3">
+        <v>1101</v>
+      </c>
+      <c r="BA191" s="3">
+        <v>917</v>
+      </c>
+      <c r="BB191" s="3">
+        <v>1022</v>
+      </c>
+      <c r="BC191" s="3">
+        <v>811</v>
+      </c>
+      <c r="BD191" s="3">
+        <v>1090</v>
+      </c>
+      <c r="BE191" s="3">
+        <v>906</v>
+      </c>
+      <c r="BF191" s="3">
+        <v>1006</v>
+      </c>
+      <c r="BG191" s="3">
+        <v>883</v>
+      </c>
+      <c r="BH191" s="3">
+        <v>1015</v>
+      </c>
+      <c r="BI191" s="3">
+        <v>1063</v>
+      </c>
+      <c r="BJ191" s="3">
+        <v>1049</v>
+      </c>
+      <c r="BK191" s="3">
+        <v>1240</v>
+      </c>
+      <c r="BL191" s="3">
+        <v>982</v>
+      </c>
+      <c r="BM191" s="3">
+        <v>46153</v>
+      </c>
+      <c r="BN191" s="3">
+        <v>10</v>
+      </c>
+      <c r="BO191" s="3">
+        <v>333</v>
+      </c>
+      <c r="BP191" s="3">
+        <v>3744</v>
+      </c>
+      <c r="BQ191" s="3">
+        <v>2353</v>
+      </c>
+      <c r="BR191" s="3">
+        <v>2854</v>
+      </c>
+      <c r="BS191" s="3">
+        <v>596</v>
+      </c>
+      <c r="BT191" s="3">
+        <v>395</v>
+      </c>
+      <c r="BU191" s="3">
+        <v>442</v>
+      </c>
+      <c r="BV191" s="3">
+        <v>45</v>
+      </c>
+      <c r="BW191" s="3">
+        <v>1619</v>
+      </c>
+      <c r="BX191" s="3">
+        <v>893</v>
+      </c>
+      <c r="BY191" s="3">
+        <v>1867</v>
+      </c>
+      <c r="BZ191" s="3">
+        <v>163</v>
+      </c>
+      <c r="CA191" s="3">
+        <v>1361</v>
+      </c>
+      <c r="CB191" s="3">
+        <v>2033</v>
+      </c>
+      <c r="CC191" s="3">
+        <v>630</v>
+      </c>
+      <c r="CD191" s="3">
+        <v>2060</v>
+      </c>
+      <c r="CE191" s="3">
+        <v>533</v>
+      </c>
+      <c r="CF191" s="3">
+        <v>1530</v>
+      </c>
+      <c r="CG191" s="3">
+        <v>1075</v>
+      </c>
+      <c r="CH191" s="3">
+        <v>453</v>
+      </c>
+      <c r="CI191" s="3">
+        <v>99</v>
+      </c>
+      <c r="CJ191" s="3">
+        <v>736</v>
+      </c>
+      <c r="CK191" s="3">
+        <v>1893</v>
+      </c>
+      <c r="CL191" s="3">
+        <v>2954</v>
+      </c>
+      <c r="CM191" s="3">
+        <v>342</v>
+      </c>
+      <c r="CN191" s="3">
+        <v>2381</v>
+      </c>
+      <c r="CO191" s="3">
+        <v>2809</v>
+      </c>
+      <c r="CP191" s="3">
+        <v>3071</v>
+      </c>
+      <c r="CQ191" s="3">
+        <v>2354</v>
+      </c>
+      <c r="CR191" s="3">
+        <v>4522</v>
+      </c>
+      <c r="CS191" s="3">
+        <v>79311</v>
+      </c>
+      <c r="CT191" s="3">
+        <v>121</v>
+      </c>
+      <c r="CU191" s="3">
+        <v>666</v>
+      </c>
+      <c r="CV191" s="3">
+        <v>6504</v>
+      </c>
+      <c r="CW191" s="3">
+        <v>3207</v>
+      </c>
+      <c r="CX191" s="3">
+        <v>3137</v>
+      </c>
+      <c r="CY191" s="3">
+        <v>1174</v>
+      </c>
+      <c r="CZ191" s="3">
+        <v>553</v>
+      </c>
+      <c r="DA191" s="3">
+        <v>662</v>
+      </c>
+      <c r="DB191" s="3">
+        <v>381</v>
+      </c>
+      <c r="DC191" s="3">
+        <v>5621</v>
+      </c>
+      <c r="DD191" s="3">
+        <v>4357</v>
+      </c>
+      <c r="DE191" s="3">
+        <v>4118</v>
+      </c>
+      <c r="DF191" s="3">
+        <v>1157</v>
+      </c>
+      <c r="DG191" s="3">
+        <v>2503</v>
+      </c>
+      <c r="DH191" s="3">
+        <v>6868</v>
+      </c>
+      <c r="DI191" s="3">
+        <v>4286</v>
+      </c>
+      <c r="DJ191" s="3">
+        <v>3309</v>
+      </c>
+      <c r="DK191" s="3">
+        <v>1753</v>
+      </c>
+      <c r="DL191" s="3">
+        <v>3779</v>
+      </c>
+      <c r="DM191" s="3">
+        <v>1807</v>
+      </c>
+      <c r="DN191" s="3">
+        <v>699</v>
+      </c>
+      <c r="DO191" s="3">
+        <v>263</v>
+      </c>
+      <c r="DP191" s="3">
+        <v>842</v>
+      </c>
+      <c r="DQ191" s="3">
+        <v>1893</v>
+      </c>
+      <c r="DR191" s="3">
+        <v>3203</v>
+      </c>
+      <c r="DS191" s="3">
+        <v>345</v>
+      </c>
+      <c r="DT191" s="3">
+        <v>2971</v>
+      </c>
+      <c r="DU191" s="3">
+        <v>2979</v>
+      </c>
+      <c r="DV191" s="3">
+        <v>3094</v>
+      </c>
+      <c r="DW191" s="3">
+        <v>2519</v>
+      </c>
+      <c r="DX191" s="3">
+        <v>4540</v>
+      </c>
+      <c r="DY191" s="3">
+        <v>23</v>
+      </c>
+      <c r="DZ191" s="3">
+        <v>192</v>
+      </c>
+      <c r="EA191" s="3">
+        <v>3319</v>
+      </c>
+      <c r="EB191" s="3">
+        <v>2588</v>
+      </c>
+      <c r="EC191" s="3">
+        <v>7884</v>
+      </c>
+      <c r="ED191" s="3">
+        <v>1639</v>
+      </c>
+      <c r="EE191" s="3">
+        <v>1537</v>
+      </c>
+      <c r="EF191" s="3">
+        <v>1335</v>
+      </c>
+      <c r="EG191" s="3">
+        <v>107</v>
+      </c>
+      <c r="EH191" s="3">
+        <v>2313</v>
+      </c>
+      <c r="EI191" s="3">
+        <v>642</v>
+      </c>
+      <c r="EJ191" s="3">
+        <v>836</v>
+      </c>
+      <c r="EK191" s="3">
+        <v>793</v>
+      </c>
+      <c r="EL191" s="3">
+        <v>608</v>
+      </c>
+      <c r="EM191" s="3">
+        <v>2669</v>
+      </c>
+      <c r="EN191" s="3">
+        <v>2263</v>
+      </c>
+      <c r="EO191" s="3">
+        <v>932</v>
+      </c>
+      <c r="EP191" s="3">
+        <v>1010</v>
+      </c>
+      <c r="EQ191" s="3">
+        <v>1674</v>
+      </c>
+      <c r="ER191" s="3">
+        <v>1617</v>
+      </c>
+      <c r="ES191" s="3">
+        <v>27</v>
+      </c>
+      <c r="ET191" s="3">
+        <v>226</v>
+      </c>
+      <c r="EU191" s="3">
+        <v>887</v>
+      </c>
+      <c r="EV191" s="3">
+        <v>727</v>
+      </c>
+      <c r="EW191" s="3">
+        <v>1617</v>
+      </c>
+      <c r="EX191" s="3">
+        <v>33</v>
+      </c>
+      <c r="EY191" s="3">
+        <v>1357</v>
+      </c>
+      <c r="EZ191" s="3">
+        <v>3057</v>
+      </c>
+      <c r="FA191" s="3">
+        <v>1210</v>
+      </c>
+      <c r="FB191" s="3">
+        <v>1500</v>
+      </c>
+      <c r="FC191" s="3">
+        <v>3935</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62A8AF-8337-4695-8536-05766A4617A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB8E8E-DF36-49E8-AF37-2BA8EAE2AD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1467,16 +1467,16 @@
   <dimension ref="A1:FC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" ht="15">
+    <row r="1" spans="1:159">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB8E8E-DF36-49E8-AF37-2BA8EAE2AD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5441CE-0047-48A2-966A-3595CC7B2BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="1290" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-11-29</t>
+    <t>2025-01-02</t>
   </si>
 </sst>
 </file>
@@ -1464,16 +1464,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FC191"/>
+  <dimension ref="A1:FC192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="AJ170" workbookViewId="0">
+      <selection activeCell="AW177" sqref="AW177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:159">
@@ -87228,478 +87228,478 @@
         <v>45260</v>
       </c>
       <c r="B181" s="3">
-        <v>1247.8399999999999</v>
+        <v>1248</v>
       </c>
       <c r="C181" s="3">
-        <v>1882.98</v>
+        <v>1883</v>
       </c>
       <c r="D181" s="3">
-        <v>2024.193775</v>
+        <v>2024</v>
       </c>
       <c r="E181" s="3">
-        <v>2022.05</v>
+        <v>2022</v>
       </c>
       <c r="F181" s="3">
-        <v>2137.7440999999999</v>
+        <v>2138</v>
       </c>
       <c r="G181" s="3">
-        <v>2254.7800000000002</v>
+        <v>2255</v>
       </c>
       <c r="H181" s="3">
-        <v>2157.6999999999998</v>
+        <v>2158</v>
       </c>
       <c r="I181" s="3">
-        <v>2278.92</v>
+        <v>2279</v>
       </c>
       <c r="J181" s="3">
-        <v>2036.28</v>
+        <v>2036</v>
       </c>
       <c r="K181" s="3">
         <v>2114</v>
       </c>
       <c r="L181" s="3">
-        <v>2079.73</v>
+        <v>2080</v>
       </c>
       <c r="M181" s="3">
-        <v>1970.45</v>
+        <v>1970</v>
       </c>
       <c r="N181" s="3">
-        <v>2561.3200000000002</v>
+        <v>2561</v>
       </c>
       <c r="O181" s="3">
-        <v>2067.0041000000001</v>
+        <v>2067</v>
       </c>
       <c r="P181" s="3">
-        <v>1960.37</v>
+        <v>1960</v>
       </c>
       <c r="Q181" s="3">
-        <v>1880.18</v>
+        <v>1880</v>
       </c>
       <c r="R181" s="3">
-        <v>1918.54</v>
+        <v>1919</v>
       </c>
       <c r="S181" s="3">
-        <v>2103.08</v>
+        <v>2103</v>
       </c>
       <c r="T181" s="3">
-        <v>1949.0117</v>
+        <v>1949</v>
       </c>
       <c r="U181" s="3">
-        <v>2103.52</v>
+        <v>2104</v>
       </c>
       <c r="V181" s="3">
-        <v>1462.71</v>
+        <v>1463</v>
       </c>
       <c r="W181" s="3">
-        <v>1981.7311</v>
+        <v>1982</v>
       </c>
       <c r="X181" s="3">
-        <v>2318.31</v>
+        <v>2318</v>
       </c>
       <c r="Y181" s="3">
-        <v>1905.1587</v>
+        <v>1905</v>
       </c>
       <c r="Z181" s="3">
-        <v>2115.0391</v>
+        <v>2115</v>
       </c>
       <c r="AA181" s="3">
-        <v>3166.59</v>
+        <v>3167</v>
       </c>
       <c r="AB181" s="3">
-        <v>1704.73</v>
+        <v>1705</v>
       </c>
       <c r="AC181" s="3">
-        <v>1858.62</v>
+        <v>1859</v>
       </c>
       <c r="AD181" s="3">
-        <v>1508.22</v>
+        <v>1508</v>
       </c>
       <c r="AE181" s="3">
-        <v>1811.85</v>
+        <v>1812</v>
       </c>
       <c r="AF181" s="3">
-        <v>2039.88</v>
+        <v>2040</v>
       </c>
       <c r="AG181" s="3">
-        <v>1217.7844829999999</v>
+        <v>1218</v>
       </c>
       <c r="AH181" s="3">
-        <v>1198.96</v>
+        <v>1199</v>
       </c>
       <c r="AI181" s="3">
-        <v>1254.4100000000001</v>
+        <v>1254</v>
       </c>
       <c r="AJ181" s="3">
-        <v>1291.098819</v>
+        <v>1291</v>
       </c>
       <c r="AK181" s="3">
-        <v>1318.25</v>
+        <v>1318</v>
       </c>
       <c r="AL181" s="3">
-        <v>1427.6781000000001</v>
+        <v>1428</v>
       </c>
       <c r="AM181" s="3">
-        <v>1446.27</v>
+        <v>1446</v>
       </c>
       <c r="AN181" s="3">
-        <v>1484.21</v>
+        <v>1484</v>
       </c>
       <c r="AO181" s="3">
-        <v>1516.17</v>
+        <v>1516</v>
       </c>
       <c r="AP181" s="3">
-        <v>1067.55</v>
+        <v>1068</v>
       </c>
       <c r="AQ181" s="3">
         <v>1154</v>
       </c>
       <c r="AR181" s="3">
-        <v>1074.99</v>
+        <v>1075</v>
       </c>
       <c r="AS181" s="3">
-        <v>1089.8599999999999</v>
+        <v>1090</v>
       </c>
       <c r="AT181" s="3">
-        <v>942.09</v>
+        <v>942</v>
       </c>
       <c r="AU181" s="3">
-        <v>990.99879999999996</v>
+        <v>991</v>
       </c>
       <c r="AV181" s="3">
-        <v>1236.6400000000001</v>
+        <v>1237</v>
       </c>
       <c r="AW181" s="3">
-        <v>896.19</v>
+        <v>896</v>
       </c>
       <c r="AX181" s="3">
-        <v>1153.6099999999999</v>
+        <v>1154</v>
       </c>
       <c r="AY181" s="3">
-        <v>1053.33</v>
+        <v>1053</v>
       </c>
       <c r="AZ181" s="3">
-        <v>913.48400000000004</v>
+        <v>913</v>
       </c>
       <c r="BA181" s="3">
-        <v>1089.5912000000001</v>
+        <v>1090</v>
       </c>
       <c r="BB181" s="3">
-        <v>1179.6300000000001</v>
+        <v>1180</v>
       </c>
       <c r="BC181" s="3">
-        <v>750.49789999999996</v>
+        <v>750</v>
       </c>
       <c r="BD181" s="3">
-        <v>1489.12</v>
+        <v>1489</v>
       </c>
       <c r="BE181" s="3">
-        <v>1052.9060999999999</v>
+        <v>1053</v>
       </c>
       <c r="BF181" s="3">
-        <v>1165.3137999999999</v>
+        <v>1165</v>
       </c>
       <c r="BG181" s="3">
-        <v>1135.52</v>
+        <v>1136</v>
       </c>
       <c r="BH181" s="3">
-        <v>1118.3699999999999</v>
+        <v>1118</v>
       </c>
       <c r="BI181" s="3">
-        <v>1360.24</v>
+        <v>1360</v>
       </c>
       <c r="BJ181" s="3">
-        <v>1336.6</v>
+        <v>1337</v>
       </c>
       <c r="BK181" s="3">
-        <v>1385.44</v>
+        <v>1385</v>
       </c>
       <c r="BL181" s="3">
-        <v>1165.3499999999999</v>
+        <v>1175</v>
       </c>
       <c r="BM181" s="3">
-        <v>32561.783599999999</v>
+        <v>32569</v>
       </c>
       <c r="BN181" s="3">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BO181" s="3">
-        <v>258.57389999999998</v>
+        <v>259</v>
       </c>
       <c r="BP181" s="3">
-        <v>2465.3842</v>
+        <v>2465</v>
       </c>
       <c r="BQ181" s="3">
-        <v>1702.1322</v>
+        <v>1702</v>
       </c>
       <c r="BR181" s="3">
-        <v>1978.8467000000001</v>
+        <v>1979</v>
       </c>
       <c r="BS181" s="3">
-        <v>561.65629999999999</v>
+        <v>562</v>
       </c>
       <c r="BT181" s="3">
-        <v>337.82740000000001</v>
+        <v>338</v>
       </c>
       <c r="BU181" s="3">
-        <v>397.04680000000002</v>
+        <v>397</v>
       </c>
       <c r="BV181" s="3">
-        <v>54.058799999999998</v>
+        <v>54</v>
       </c>
       <c r="BW181" s="3">
-        <v>1211.4460999999999</v>
+        <v>1211</v>
       </c>
       <c r="BX181" s="3">
-        <v>659.10969999999998</v>
+        <v>659</v>
       </c>
       <c r="BY181" s="3">
-        <v>1336.6713999999999</v>
+        <v>1337</v>
       </c>
       <c r="BZ181" s="3">
-        <v>132.03579999999999</v>
+        <v>132</v>
       </c>
       <c r="CA181" s="3">
-        <v>854.98</v>
+        <v>855</v>
       </c>
       <c r="CB181" s="3">
-        <v>1507.5790999999999</v>
+        <v>1508</v>
       </c>
       <c r="CC181" s="3">
-        <v>643.80200000000002</v>
+        <v>644</v>
       </c>
       <c r="CD181" s="3">
-        <v>1695.4592</v>
+        <v>1695</v>
       </c>
       <c r="CE181" s="3">
-        <v>420.0077</v>
+        <v>420</v>
       </c>
       <c r="CF181" s="3">
-        <v>1092.8743999999999</v>
+        <v>1093</v>
       </c>
       <c r="CG181" s="3">
-        <v>762.33199999999999</v>
+        <v>762</v>
       </c>
       <c r="CH181" s="3">
-        <v>310.66800000000001</v>
+        <v>311</v>
       </c>
       <c r="CI181" s="3">
-        <v>71.17</v>
+        <v>71</v>
       </c>
       <c r="CJ181" s="3">
-        <v>388.07589999999999</v>
+        <v>388</v>
       </c>
       <c r="CK181" s="3">
-        <v>1494.2787000000001</v>
+        <v>1494</v>
       </c>
       <c r="CL181" s="3">
-        <v>1330.8205</v>
+        <v>1331</v>
       </c>
       <c r="CM181" s="3">
-        <v>233.37219999999999</v>
+        <v>233</v>
       </c>
       <c r="CN181" s="3">
-        <v>1639.2211</v>
+        <v>1639</v>
       </c>
       <c r="CO181" s="3">
-        <v>2141.5495000000001</v>
+        <v>2142</v>
       </c>
       <c r="CP181" s="3">
-        <v>2164.7707999999998</v>
+        <v>2165</v>
       </c>
       <c r="CQ181" s="3">
-        <v>1900.4036000000001</v>
+        <v>1900</v>
       </c>
       <c r="CR181" s="3">
-        <v>2807.2296999999999</v>
+        <v>2814</v>
       </c>
       <c r="CS181" s="3">
-        <v>55762.160199999998</v>
+        <v>55769</v>
       </c>
       <c r="CT181" s="3">
-        <v>106.32510000000001</v>
+        <v>106</v>
       </c>
       <c r="CU181" s="3">
-        <v>431.06729999999999</v>
+        <v>431</v>
       </c>
       <c r="CV181" s="3">
-        <v>4681.8845000000001</v>
+        <v>4682</v>
       </c>
       <c r="CW181" s="3">
-        <v>2324.5464000000002</v>
+        <v>2325</v>
       </c>
       <c r="CX181" s="3">
-        <v>2094.9679000000001</v>
+        <v>2095</v>
       </c>
       <c r="CY181" s="3">
-        <v>910.93640000000005</v>
+        <v>911</v>
       </c>
       <c r="CZ181" s="3">
-        <v>439.79500000000002</v>
+        <v>440</v>
       </c>
       <c r="DA181" s="3">
-        <v>552.09259999999995</v>
+        <v>552</v>
       </c>
       <c r="DB181" s="3">
-        <v>279.09769999999997</v>
+        <v>279</v>
       </c>
       <c r="DC181" s="3">
-        <v>3701.895</v>
+        <v>3702</v>
       </c>
       <c r="DD181" s="3">
-        <v>3241.7525999999998</v>
+        <v>3242</v>
       </c>
       <c r="DE181" s="3">
-        <v>3068.9765000000002</v>
+        <v>3069</v>
       </c>
       <c r="DF181" s="3">
-        <v>829.3999</v>
+        <v>829</v>
       </c>
       <c r="DG181" s="3">
-        <v>1828.2019</v>
+        <v>1828</v>
       </c>
       <c r="DH181" s="3">
-        <v>5450.1804000000002</v>
+        <v>5450</v>
       </c>
       <c r="DI181" s="3">
-        <v>3608.4883</v>
+        <v>3608</v>
       </c>
       <c r="DJ181" s="3">
-        <v>2358.3534</v>
+        <v>2358</v>
       </c>
       <c r="DK181" s="3">
-        <v>1090.7619</v>
+        <v>1091</v>
       </c>
       <c r="DL181" s="3">
-        <v>2385.0565999999999</v>
+        <v>2385</v>
       </c>
       <c r="DM181" s="3">
-        <v>959.81299999999999</v>
+        <v>960</v>
       </c>
       <c r="DN181" s="3">
-        <v>442.15800000000002</v>
+        <v>442</v>
       </c>
       <c r="DO181" s="3">
-        <v>127.3935</v>
+        <v>127</v>
       </c>
       <c r="DP181" s="3">
-        <v>425.86380000000003</v>
+        <v>426</v>
       </c>
       <c r="DQ181" s="3">
-        <v>1494.2787000000001</v>
+        <v>1494</v>
       </c>
       <c r="DR181" s="3">
-        <v>1448.0409999999999</v>
+        <v>1448</v>
       </c>
       <c r="DS181" s="3">
-        <v>236.60050000000001</v>
+        <v>237</v>
       </c>
       <c r="DT181" s="3">
-        <v>1976.7348</v>
+        <v>1977</v>
       </c>
       <c r="DU181" s="3">
-        <v>2241.2319000000002</v>
+        <v>2241</v>
       </c>
       <c r="DV181" s="3">
-        <v>2180.8476000000001</v>
+        <v>2181</v>
       </c>
       <c r="DW181" s="3">
-        <v>2021.6934000000001</v>
+        <v>2022</v>
       </c>
       <c r="DX181" s="3">
-        <v>2823.7244000000001</v>
+        <v>2831</v>
       </c>
       <c r="DY181" s="3">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="DZ181" s="3">
-        <v>153.745</v>
+        <v>154</v>
       </c>
       <c r="EA181" s="3">
-        <v>3005.7750000000001</v>
+        <v>3006</v>
       </c>
       <c r="EB181" s="3">
-        <v>2455.3380000000002</v>
+        <v>2455</v>
       </c>
       <c r="EC181" s="3">
-        <v>5887.8069999999998</v>
+        <v>5888</v>
       </c>
       <c r="ED181" s="3">
-        <v>1385.9659999999999</v>
+        <v>1386</v>
       </c>
       <c r="EE181" s="3">
-        <v>1214.2809999999999</v>
+        <v>1214</v>
       </c>
       <c r="EF181" s="3">
-        <v>1095.365</v>
+        <v>1095</v>
       </c>
       <c r="EG181" s="3">
-        <v>106.97499999999999</v>
+        <v>107</v>
       </c>
       <c r="EH181" s="3">
-        <v>2282.4380000000001</v>
+        <v>2282</v>
       </c>
       <c r="EI181" s="3">
-        <v>514.91600000000005</v>
+        <v>515</v>
       </c>
       <c r="EJ181" s="3">
-        <v>700.5</v>
+        <v>701</v>
       </c>
       <c r="EK181" s="3">
-        <v>756.51499999999999</v>
+        <v>757</v>
       </c>
       <c r="EL181" s="3">
-        <v>568.35</v>
+        <v>568</v>
       </c>
       <c r="EM181" s="3">
-        <v>2505.61</v>
+        <v>2506</v>
       </c>
       <c r="EN181" s="3">
-        <v>2095.6149999999998</v>
+        <v>2096</v>
       </c>
       <c r="EO181" s="3">
-        <v>833.85</v>
+        <v>834</v>
       </c>
       <c r="EP181" s="3">
-        <v>929.89499999999998</v>
+        <v>930</v>
       </c>
       <c r="EQ181" s="3">
-        <v>1410.4939999999999</v>
+        <v>1410</v>
       </c>
       <c r="ER181" s="3">
-        <v>1171.396</v>
+        <v>1171</v>
       </c>
       <c r="ES181" s="3">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="ET181" s="3">
-        <v>202.86</v>
+        <v>203</v>
       </c>
       <c r="EU181" s="3">
-        <v>717.65099999999995</v>
+        <v>718</v>
       </c>
       <c r="EV181" s="3">
-        <v>611.17499999999995</v>
+        <v>611</v>
       </c>
       <c r="EW181" s="3">
-        <v>1466.0619999999999</v>
+        <v>1466</v>
       </c>
       <c r="EX181" s="3">
-        <v>7.95</v>
+        <v>8</v>
       </c>
       <c r="EY181" s="3">
-        <v>1213.04</v>
+        <v>1213</v>
       </c>
       <c r="EZ181" s="3">
-        <v>2312.86</v>
+        <v>2313</v>
       </c>
       <c r="FA181" s="3">
-        <v>989.1</v>
+        <v>989</v>
       </c>
       <c r="FB181" s="3">
-        <v>1456.7380000000001</v>
+        <v>1457</v>
       </c>
       <c r="FC181" s="3">
-        <v>3125.0749999999998</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="182" spans="1:159">
@@ -92490,6 +92490,485 @@
       </c>
       <c r="FC191" s="3">
         <v>3935</v>
+      </c>
+    </row>
+    <row r="192" spans="1:159">
+      <c r="A192" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1756</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1740</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1822</v>
+      </c>
+      <c r="E192" s="3">
+        <v>1815</v>
+      </c>
+      <c r="F192" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G192" s="3">
+        <v>2148</v>
+      </c>
+      <c r="H192" s="3">
+        <v>1949</v>
+      </c>
+      <c r="I192" s="3">
+        <v>2146</v>
+      </c>
+      <c r="J192" s="3">
+        <v>2202</v>
+      </c>
+      <c r="K192" s="3">
+        <v>2257</v>
+      </c>
+      <c r="L192" s="3">
+        <v>2333</v>
+      </c>
+      <c r="M192" s="3">
+        <v>1949</v>
+      </c>
+      <c r="N192" s="3">
+        <v>2768</v>
+      </c>
+      <c r="O192" s="3">
+        <v>2151</v>
+      </c>
+      <c r="P192" s="3">
+        <v>2021</v>
+      </c>
+      <c r="Q192" s="3">
+        <v>1842</v>
+      </c>
+      <c r="R192" s="3">
+        <v>1806</v>
+      </c>
+      <c r="S192" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T192" s="3">
+        <v>2011</v>
+      </c>
+      <c r="U192" s="3">
+        <v>1973</v>
+      </c>
+      <c r="V192" s="3">
+        <v>1536</v>
+      </c>
+      <c r="W192" s="3">
+        <v>2009</v>
+      </c>
+      <c r="X192" s="3">
+        <v>2063</v>
+      </c>
+      <c r="Y192" s="3">
+        <v>1829</v>
+      </c>
+      <c r="Z192" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA192" s="3">
+        <v>1558</v>
+      </c>
+      <c r="AB192" s="3">
+        <v>1669</v>
+      </c>
+      <c r="AC192" s="3">
+        <v>1498</v>
+      </c>
+      <c r="AD192" s="3">
+        <v>1243</v>
+      </c>
+      <c r="AE192" s="3">
+        <v>1709</v>
+      </c>
+      <c r="AF192" s="3">
+        <v>1885</v>
+      </c>
+      <c r="AG192" s="3">
+        <v>1132</v>
+      </c>
+      <c r="AH192" s="3">
+        <v>1060</v>
+      </c>
+      <c r="AI192" s="3">
+        <v>1380</v>
+      </c>
+      <c r="AJ192" s="3">
+        <v>1042</v>
+      </c>
+      <c r="AK192" s="3">
+        <v>1194</v>
+      </c>
+      <c r="AL192" s="3">
+        <v>1370</v>
+      </c>
+      <c r="AM192" s="3">
+        <v>1342</v>
+      </c>
+      <c r="AN192" s="3">
+        <v>1370</v>
+      </c>
+      <c r="AO192" s="3">
+        <v>1431</v>
+      </c>
+      <c r="AP192" s="3">
+        <v>1101</v>
+      </c>
+      <c r="AQ192" s="3">
+        <v>1202</v>
+      </c>
+      <c r="AR192" s="3">
+        <v>1013</v>
+      </c>
+      <c r="AS192" s="3">
+        <v>1096</v>
+      </c>
+      <c r="AT192" s="3">
+        <v>909</v>
+      </c>
+      <c r="AU192" s="3">
+        <v>903</v>
+      </c>
+      <c r="AV192" s="3">
+        <v>1207</v>
+      </c>
+      <c r="AW192" s="3">
+        <v>897</v>
+      </c>
+      <c r="AX192" s="3">
+        <v>1158</v>
+      </c>
+      <c r="AY192" s="3">
+        <v>949</v>
+      </c>
+      <c r="AZ192" s="3">
+        <v>1215</v>
+      </c>
+      <c r="BA192" s="3">
+        <v>1025</v>
+      </c>
+      <c r="BB192" s="3">
+        <v>1104</v>
+      </c>
+      <c r="BC192" s="3">
+        <v>849</v>
+      </c>
+      <c r="BD192" s="3">
+        <v>1184</v>
+      </c>
+      <c r="BE192" s="3">
+        <v>963</v>
+      </c>
+      <c r="BF192" s="3">
+        <v>1117</v>
+      </c>
+      <c r="BG192" s="3">
+        <v>961</v>
+      </c>
+      <c r="BH192" s="3">
+        <v>1072</v>
+      </c>
+      <c r="BI192" s="3">
+        <v>1130</v>
+      </c>
+      <c r="BJ192" s="3">
+        <v>1143</v>
+      </c>
+      <c r="BK192" s="3">
+        <v>1329</v>
+      </c>
+      <c r="BL192" s="3">
+        <v>1038</v>
+      </c>
+      <c r="BM192" s="3">
+        <v>47710</v>
+      </c>
+      <c r="BN192" s="3">
+        <v>13</v>
+      </c>
+      <c r="BO192" s="3">
+        <v>333</v>
+      </c>
+      <c r="BP192" s="3">
+        <v>3867</v>
+      </c>
+      <c r="BQ192" s="3">
+        <v>2392</v>
+      </c>
+      <c r="BR192" s="3">
+        <v>3088</v>
+      </c>
+      <c r="BS192" s="3">
+        <v>597</v>
+      </c>
+      <c r="BT192" s="3">
+        <v>395</v>
+      </c>
+      <c r="BU192" s="3">
+        <v>452</v>
+      </c>
+      <c r="BV192" s="3">
+        <v>45</v>
+      </c>
+      <c r="BW192" s="3">
+        <v>1721</v>
+      </c>
+      <c r="BX192" s="3">
+        <v>934</v>
+      </c>
+      <c r="BY192" s="3">
+        <v>1901</v>
+      </c>
+      <c r="BZ192" s="3">
+        <v>176</v>
+      </c>
+      <c r="CA192" s="3">
+        <v>1361</v>
+      </c>
+      <c r="CB192" s="3">
+        <v>2105</v>
+      </c>
+      <c r="CC192" s="3">
+        <v>630</v>
+      </c>
+      <c r="CD192" s="3">
+        <v>2113</v>
+      </c>
+      <c r="CE192" s="3">
+        <v>538</v>
+      </c>
+      <c r="CF192" s="3">
+        <v>1538</v>
+      </c>
+      <c r="CG192" s="3">
+        <v>1129</v>
+      </c>
+      <c r="CH192" s="3">
+        <v>466</v>
+      </c>
+      <c r="CI192" s="3">
+        <v>99</v>
+      </c>
+      <c r="CJ192" s="3">
+        <v>831</v>
+      </c>
+      <c r="CK192" s="3">
+        <v>1949</v>
+      </c>
+      <c r="CL192" s="3">
+        <v>3049</v>
+      </c>
+      <c r="CM192" s="3">
+        <v>373</v>
+      </c>
+      <c r="CN192" s="3">
+        <v>2452</v>
+      </c>
+      <c r="CO192" s="3">
+        <v>2830</v>
+      </c>
+      <c r="CP192" s="3">
+        <v>3082</v>
+      </c>
+      <c r="CQ192" s="3">
+        <v>2379</v>
+      </c>
+      <c r="CR192" s="3">
+        <v>4872</v>
+      </c>
+      <c r="CS192" s="3">
+        <v>81833</v>
+      </c>
+      <c r="CT192" s="3">
+        <v>127</v>
+      </c>
+      <c r="CU192" s="3">
+        <v>679</v>
+      </c>
+      <c r="CV192" s="3">
+        <v>6663</v>
+      </c>
+      <c r="CW192" s="3">
+        <v>3271</v>
+      </c>
+      <c r="CX192" s="3">
+        <v>3378</v>
+      </c>
+      <c r="CY192" s="3">
+        <v>1183</v>
+      </c>
+      <c r="CZ192" s="3">
+        <v>561</v>
+      </c>
+      <c r="DA192" s="3">
+        <v>679</v>
+      </c>
+      <c r="DB192" s="3">
+        <v>399</v>
+      </c>
+      <c r="DC192" s="3">
+        <v>5865</v>
+      </c>
+      <c r="DD192" s="3">
+        <v>4521</v>
+      </c>
+      <c r="DE192" s="3">
+        <v>4211</v>
+      </c>
+      <c r="DF192" s="3">
+        <v>1193</v>
+      </c>
+      <c r="DG192" s="3">
+        <v>2518</v>
+      </c>
+      <c r="DH192" s="3">
+        <v>6998</v>
+      </c>
+      <c r="DI192" s="3">
+        <v>4322</v>
+      </c>
+      <c r="DJ192" s="3">
+        <v>3403</v>
+      </c>
+      <c r="DK192" s="3">
+        <v>1793</v>
+      </c>
+      <c r="DL192" s="3">
+        <v>3918</v>
+      </c>
+      <c r="DM192" s="3">
+        <v>1918</v>
+      </c>
+      <c r="DN192" s="3">
+        <v>726</v>
+      </c>
+      <c r="DO192" s="3">
+        <v>285</v>
+      </c>
+      <c r="DP192" s="3">
+        <v>966</v>
+      </c>
+      <c r="DQ192" s="3">
+        <v>1949</v>
+      </c>
+      <c r="DR192" s="3">
+        <v>3312</v>
+      </c>
+      <c r="DS192" s="3">
+        <v>378</v>
+      </c>
+      <c r="DT192" s="3">
+        <v>3077</v>
+      </c>
+      <c r="DU192" s="3">
+        <v>3004</v>
+      </c>
+      <c r="DV192" s="3">
+        <v>3105</v>
+      </c>
+      <c r="DW192" s="3">
+        <v>2539</v>
+      </c>
+      <c r="DX192" s="3">
+        <v>4890</v>
+      </c>
+      <c r="DY192" s="3">
+        <v>23</v>
+      </c>
+      <c r="DZ192" s="3">
+        <v>199</v>
+      </c>
+      <c r="EA192" s="3">
+        <v>3385</v>
+      </c>
+      <c r="EB192" s="3">
+        <v>2601</v>
+      </c>
+      <c r="EC192" s="3">
+        <v>7912</v>
+      </c>
+      <c r="ED192" s="3">
+        <v>1648</v>
+      </c>
+      <c r="EE192" s="3">
+        <v>1560</v>
+      </c>
+      <c r="EF192" s="3">
+        <v>1367</v>
+      </c>
+      <c r="EG192" s="3">
+        <v>107</v>
+      </c>
+      <c r="EH192" s="3">
+        <v>2316</v>
+      </c>
+      <c r="EI192" s="3">
+        <v>645</v>
+      </c>
+      <c r="EJ192" s="3">
+        <v>868</v>
+      </c>
+      <c r="EK192" s="3">
+        <v>793</v>
+      </c>
+      <c r="EL192" s="3">
+        <v>615</v>
+      </c>
+      <c r="EM192" s="3">
+        <v>2669</v>
+      </c>
+      <c r="EN192" s="3">
+        <v>2273</v>
+      </c>
+      <c r="EO192" s="3">
+        <v>943</v>
+      </c>
+      <c r="EP192" s="3">
+        <v>1042</v>
+      </c>
+      <c r="EQ192" s="3">
+        <v>1678</v>
+      </c>
+      <c r="ER192" s="3">
+        <v>1687</v>
+      </c>
+      <c r="ES192" s="3">
+        <v>27</v>
+      </c>
+      <c r="ET192" s="3">
+        <v>233</v>
+      </c>
+      <c r="EU192" s="3">
+        <v>890</v>
+      </c>
+      <c r="EV192" s="3">
+        <v>737</v>
+      </c>
+      <c r="EW192" s="3">
+        <v>1630</v>
+      </c>
+      <c r="EX192" s="3">
+        <v>53</v>
+      </c>
+      <c r="EY192" s="3">
+        <v>1377</v>
+      </c>
+      <c r="EZ192" s="3">
+        <v>3080</v>
+      </c>
+      <c r="FA192" s="3">
+        <v>1210</v>
+      </c>
+      <c r="FB192" s="3">
+        <v>1503</v>
+      </c>
+      <c r="FC192" s="3">
+        <v>4088</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5441CE-0047-48A2-966A-3595CC7B2BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54577C34-312A-436B-946A-F42F468F11D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1290" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1467,16 +1467,16 @@
   <dimension ref="A1:FC192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ170" workbookViewId="0">
-      <selection activeCell="AW177" sqref="AW177"/>
+      <selection activeCell="BB192" sqref="BB192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="65" max="65" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159">
+    <row r="1" spans="1:159" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54577C34-312A-436B-946A-F42F468F11D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C728D27F-C6F2-4988-917C-C30426DCA77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -1466,17 +1466,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FC192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ170" workbookViewId="0">
-      <selection activeCell="BB192" sqref="BB192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW177" sqref="AW177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" ht="15">
+    <row r="1" spans="1:159">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
+++ b/inst/extdata/wind_solar_utilization_capacity_by_province.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C728D27F-C6F2-4988-917C-C30426DCA77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0FA09-3553-402B-A57C-2995B0BB9AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Average Utilizati" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="330">
   <si>
     <t>Country</t>
   </si>
@@ -1045,6 +1045,9 @@
   <si>
     <t>2025-01-02</t>
   </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
 </sst>
 </file>
 
@@ -1464,19 +1467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FC192"/>
+  <dimension ref="A1:FC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AW177" sqref="AW177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159">
+    <row r="1" spans="1:159" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -4646,100 +4649,100 @@
         <v>328</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CU8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CV8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CW8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CX8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CY8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CZ8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DB8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DC8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DD8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DF8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DG8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DI8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DJ8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DK8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DL8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DM8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DO8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DP8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DQ8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DR8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DS8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DT8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DW8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DX8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DY8" s="5" t="s">
         <v>328</v>
@@ -92969,6 +92972,485 @@
       </c>
       <c r="FC192" s="3">
         <v>4088</v>
+      </c>
+    </row>
+    <row r="193" spans="1:159">
+      <c r="A193" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B193" s="3">
+        <v>0</v>
+      </c>
+      <c r="C193" s="3">
+        <v>0</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="3">
+        <v>0</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0</v>
+      </c>
+      <c r="J193" s="3">
+        <v>0</v>
+      </c>
+      <c r="K193" s="3">
+        <v>0</v>
+      </c>
+      <c r="L193" s="3">
+        <v>0</v>
+      </c>
+      <c r="M193" s="3">
+        <v>0</v>
+      </c>
+      <c r="N193" s="3">
+        <v>0</v>
+      </c>
+      <c r="O193" s="3">
+        <v>0</v>
+      </c>
+      <c r="P193" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="3">
+        <v>0</v>
+      </c>
+      <c r="R193" s="3">
+        <v>0</v>
+      </c>
+      <c r="S193" s="3">
+        <v>0</v>
+      </c>
+      <c r="T193" s="3">
+        <v>0</v>
+      </c>
+      <c r="U193" s="3">
+        <v>0</v>
+      </c>
+      <c r="V193" s="3">
+        <v>0</v>
+      </c>
+      <c r="W193" s="3">
+        <v>0</v>
+      </c>
+      <c r="X193" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y193" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY193" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR193" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS193" s="3">
+        <v>88665.524984000003</v>
+      </c>
+      <c r="CT193" s="3">
+        <v>130.32730100000001</v>
+      </c>
+      <c r="CU193" s="3">
+        <v>724.13333699999998</v>
+      </c>
+      <c r="CV193" s="3">
+        <v>7202.4124389999997</v>
+      </c>
+      <c r="CW193" s="3">
+        <v>3476.8480500000001</v>
+      </c>
+      <c r="CX193" s="3">
+        <v>4820.8717999999999</v>
+      </c>
+      <c r="CY193" s="3">
+        <v>1213.9402</v>
+      </c>
+      <c r="CZ193" s="3">
+        <v>583.01906499999996</v>
+      </c>
+      <c r="DA193" s="3">
+        <v>717.05154500000003</v>
+      </c>
+      <c r="DB193" s="3">
+        <v>411.43528400000002</v>
+      </c>
+      <c r="DC193" s="3">
+        <v>6164.7146709999997</v>
+      </c>
+      <c r="DD193" s="3">
+        <v>4727.4835359999997</v>
+      </c>
+      <c r="DE193" s="3">
+        <v>4311.2737539999998</v>
+      </c>
+      <c r="DF193" s="3">
+        <v>1258.3192300000001</v>
+      </c>
+      <c r="DG193" s="3">
+        <v>2563.897876</v>
+      </c>
+      <c r="DH193" s="3">
+        <v>7613.4382349999996</v>
+      </c>
+      <c r="DI193" s="3">
+        <v>4349.0763749999996</v>
+      </c>
+      <c r="DJ193" s="3">
+        <v>3509.9600999999998</v>
+      </c>
+      <c r="DK193" s="3">
+        <v>1873.3727859999999</v>
+      </c>
+      <c r="DL193" s="3">
+        <v>4115.5433000000003</v>
+      </c>
+      <c r="DM193" s="3">
+        <v>2052.3467000000001</v>
+      </c>
+      <c r="DN193" s="3">
+        <v>740.82839999999999</v>
+      </c>
+      <c r="DO193" s="3">
+        <v>309.75110000000001</v>
+      </c>
+      <c r="DP193" s="3">
+        <v>1082.3124</v>
+      </c>
+      <c r="DQ193" s="3">
+        <v>1985.6108999999999</v>
+      </c>
+      <c r="DR193" s="3">
+        <v>3723.0239999999999</v>
+      </c>
+      <c r="DS193" s="3">
+        <v>413.88099999999997</v>
+      </c>
+      <c r="DT193" s="3">
+        <v>3432.9704999999999</v>
+      </c>
+      <c r="DU193" s="3">
+        <v>3190.8289</v>
+      </c>
+      <c r="DV193" s="3">
+        <v>3663.0499</v>
+      </c>
+      <c r="DW193" s="3">
+        <v>2624.0182</v>
+      </c>
+      <c r="DX193" s="3">
+        <v>5679.7840999999999</v>
+      </c>
+      <c r="DY193" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC193" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EQ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="ER193" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES193" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EU193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EV193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EW193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EY193" s="3">
+        <v>0</v>
+      </c>
+      <c r="EZ193" s="3">
+        <v>0</v>
+      </c>
+      <c r="FA193" s="3">
+        <v>0</v>
+      </c>
+      <c r="FB193" s="3">
+        <v>0</v>
+      </c>
+      <c r="FC193" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
